--- a/xlsx/保守主义_intext.xlsx
+++ b/xlsx/保守主义_intext.xlsx
@@ -15,1773 +15,1752 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="582">
   <si>
     <t>保守主义</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>文化保守主义</t>
+  </si>
+  <si>
+    <t>政策_政策_政治_保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%94%BF%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>财政保守主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Green_conservatism</t>
+  </si>
+  <si>
+    <t>en-Green conservatism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由意志保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>民族保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%B3%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>新右派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9B%BD%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>一国保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>旧保守主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_conservatism</t>
+  </si>
+  <si>
+    <t>en-Social conservatism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>古典保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%9E%E7%9C%BE%E8%A1%8C%E7%82%BA</t>
+  </si>
+  <si>
+    <t>从众行为</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Familialism</t>
+  </si>
+  <si>
+    <t>en-Familialism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>自由市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>小政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A7%84%E8%8C%83</t>
+  </si>
+  <si>
+    <t>社会规范</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>爱国主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%88%B6</t>
+  </si>
+  <si>
+    <t>私有制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>贸易保护主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>法治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>传统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E4%BC%AF%E5%85%8B</t>
+  </si>
+  <si>
+    <t>埃德蒙·伯克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%B7%B4%E8%92%82%E6%96%AF%E5%A1%94%C2%B7%E7%BB%B4%E6%9F%AF</t>
+  </si>
+  <si>
+    <t>詹巴蒂斯塔·维柯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E5%BE%B7%C2%B7%E8%BF%88%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>约瑟夫·德·迈斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%B4%8D%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>波纳德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E7%B1%B3%E5%8B%92_(%E4%BD%9C%E5%AE%B6)</t>
+  </si>
+  <si>
+    <t>亚当·米勒 (作家)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E6%96%BD%E5%8B%92%E6%A0%BC%E7%88%BE</t>
+  </si>
+  <si>
+    <t>卡尔·威廉·施勒格尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%93%A6%E5%88%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>诺瓦利斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E6%8A%A4%E5%8D%81%E4%B8%96</t>
+  </si>
+  <si>
+    <t>庇护十世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E6%8A%A4%E4%B9%9D%E4%B8%96</t>
+  </si>
+  <si>
+    <t>庇护九世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E7%B4%A2%E7%93%A6-%E5%8B%92%E5%86%85%C2%B7%E5%BE%B7%C2%B7%E5%A4%8F%E5%A4%9A%E5%B8%83%E9%87%8C%E6%98%82</t>
+  </si>
+  <si>
+    <t>弗朗索瓦-勒内·德·夏多布里昂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E6%96%AF%C2%B7%E6%A2%85%E7%89%B9%E6%B6%85</t>
+  </si>
+  <si>
+    <t>克莱门斯·梅特涅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%A5%A7%E6%B3%A2%E5%BE%B7%C2%B7%E9%A6%AE%C2%B7%E8%98%AD%E5%85%8B</t>
+  </si>
+  <si>
+    <t>利奥波德·冯·兰克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E7%B1%B3%E5%93%88%E4%BC%8A%E6%B4%9B%E7%BB%B4%E5%A5%87%C2%B7%E5%8D%A1%E6%8B%89%E5%A7%86%E6%B4%A5</t>
+  </si>
+  <si>
+    <t>尼古拉·米哈伊洛维奇·卡拉姆津</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E9%BA%A6%E5%85%8B%E5%94%90%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>约翰·亚历山大·麦克唐纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E6%B3%B0%E5%8B%92%C2%B7%E6%9F%AF%E5%8B%92%E5%BE%8B%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>塞缪尔·泰勒·柯勒律治</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Juan_Donoso_Cort%C3%A9s</t>
+  </si>
+  <si>
+    <t>en-Juan Donoso Cortés</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%8D%A1%E5%B0%94%E9%9C%8D%E6%81%A9</t>
+  </si>
+  <si>
+    <t>约翰·C·卡尔霍恩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E9%98%BF%E5%B0%94%E5%8D%A1%E5%AD%A3%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E6%96%AF%E6%89%98%E9%9B%B7%E5%B9%B3</t>
+  </si>
+  <si>
+    <t>彼得·阿尔卡季耶维奇·斯托雷平</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%9D%B0%E6%98%8E%C2%B7%E8%BF%AA%E6%96%AF%E9%9B%B7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>本杰明·迪斯雷利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%89%98%C2%B7%E5%86%AF%C2%B7%E4%BF%BE%E6%96%AF%E9%BA%A6</t>
+  </si>
+  <si>
+    <t>奥托·冯·俾斯麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%8D%A1%E5%B0%94%C2%B7%E5%86%AF%C2%B7%E8%90%A8%E7%BB%B4%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>弗里德里希·卡尔·冯·萨维尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%C2%B7%E5%A8%81%E5%BB%89%E5%9B%9B%E4%B8%96</t>
+  </si>
+  <si>
+    <t>腓特烈·威廉四世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E6%B3%A2%E5%88%A9%E7%89%B9%C2%B7%E9%98%BF%E9%81%93%E5%B0%94%E5%A4%AB%C2%B7%E4%B8%B9%E7%BA%B3</t>
+  </si>
+  <si>
+    <t>依波利特·阿道尔夫·丹纳</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E8%A5%BF%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E6%89%98%E5%85%8B%E7%BB%B4%E5%B0%94</t>
+  </si>
+  <si>
+    <t>亚历西斯·德·托克维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%BC%97%E7%BD%97%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>罗伯特·弗罗斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E7%B4%90%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>约翰·亨利·纽曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E4%B8%89%E4%B8%96_(%E4%BF%84%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>亚历山大三世 (俄国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E7%88%BE%C2%B7%E6%99%AE%E5%88%A9%E5%B8%8C%E5%85%8B%E7%B6%AD%E5%A5%87</t>
+  </si>
+  <si>
+    <t>弗拉基米尔·普利希克维奇</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%A1%91%E5%A1%94%E4%BA%9A%E9%82%A3</t>
+  </si>
+  <si>
+    <t>乔治·桑塔亚那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E7%93%A6%E7%88%BE%E5%BE%B7%C2%B7%E6%96%AF%E8%B3%93%E6%A0%BC%E5%8B%92</t>
+  </si>
+  <si>
+    <t>奥斯瓦尔德·斯宾格勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%98%82%C2%B7%E5%B8%83%E6%B4%9B%E4%BC%8A</t>
+  </si>
+  <si>
+    <t>莱昂·布洛伊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%A5%A5%E5%A4%9A%E5%B0%94%C2%B7%E7%B1%B3%E5%93%88%E4%BC%8A%E6%B4%9B%E7%BB%B4%E5%A5%87%C2%B7%E9%99%80%E6%80%9D%E5%A6%A5%E8%80%B6%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>费奥多尔·米哈伊洛维奇·陀思妥耶夫斯基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E8%8D%A3%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>恩斯特·荣格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%96%AF%E9%A1%BF%C2%B7%E4%B8%98%E5%90%89%E5%B0%94</t>
+  </si>
+  <si>
+    <t>温斯顿·丘吉尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7A%C2%B7%E5%A1%94%E5%A4%AB%E8%84%B1</t>
+  </si>
+  <si>
+    <t>罗伯特·A·塔夫脱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%AB%BE%C2%B7%E9%AE%91%E5%A8%81%E7%88%BE</t>
+  </si>
+  <si>
+    <t>以诺·鲍威尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A8%81%E5%BB%89%C2%B7F%C2%B7%E5%B7%B4%E5%85%8B%E5%88%A9</t>
+  </si>
+  <si>
+    <t>小威廉·F·巴克利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>罗纳德·里根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7P%C2%B7%E4%BA%A8%E5%BB%B7%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>塞缪尔·P·亨廷顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E4%B8%BD%E7%89%B9%C2%B7%E6%92%92%E5%88%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>玛格丽特·撒切尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%96%BD%E7%B1%B3%E7%89%B9</t>
+  </si>
+  <si>
+    <t>卡尔·施米特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/T%C2%B7S%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
+  </si>
+  <si>
+    <t>T·S·艾略特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%AC%83%E5%8D%81%E5%85%AD%E4%B8%96</t>
+  </si>
+  <si>
+    <t>本笃十六世</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Michael_Oakeshott</t>
+  </si>
+  <si>
+    <t>en-Michael Oakeshott</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%AE%81%C2%B7%E6%96%AF%E5%8D%A1%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>安东宁·斯卡利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/G%C2%B7K%C2%B7%E5%88%87%E6%96%AF%E7%89%B9%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>G·K·切斯特顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/C%C2%B7S%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
+  </si>
+  <si>
+    <t>C·S·刘易斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A5%C2%B7%E6%96%BD%E7%89%B9%E5%8A%B3%E6%96%AF</t>
+  </si>
+  <si>
+    <t>列奥·施特劳斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%C2%B7%E9%98%BF%E5%8D%9A%E7%89%B9</t>
+  </si>
+  <si>
+    <t>托尼·阿博特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>约翰·霍华德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%B4%A0%C2%B7%E6%9F%AF%E5%85%8B</t>
+  </si>
+  <si>
+    <t>罗素·柯克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E4%BC%8A%E8%90%A8%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E7%B4%A2%E5%B0%94%E4%BB%81%E5%B0%BC%E7%90%B4</t>
+  </si>
+  <si>
+    <t>亚历山大·伊萨耶维奇·索尔仁尼琴</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Roger_Scruton</t>
+  </si>
+  <si>
+    <t>en-Roger Scruton</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国际民主联盟</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Asia_Pacific_Democrat_Union</t>
+  </si>
+  <si>
+    <t>en-Asia Pacific Democrat Union</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%BA%BA%E6%B0%91%E5%85%9A</t>
+  </si>
+  <si>
+    <t>欧洲人民党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%BF%9D%E5%AE%88%E6%B4%BE%E5%92%8C%E6%94%B9%E9%9D%A9%E4%B8%BB%E4%B9%89%E8%80%85%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧洲保守派和改革主义者联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E5%85%9A</t>
+  </si>
+  <si>
+    <t>保守党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8F%B3%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>基督教右派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%9F%BA%E8%A6%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>基督教基要主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jewish_right</t>
+  </si>
+  <si>
+    <t>en-Jewish right</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%93%88%E6%AF%94%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>瓦哈比派</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hindutva</t>
+  </si>
+  <si>
+    <t>en-Hindutva</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/State_Shinto</t>
+  </si>
+  <si>
+    <t>en-State Shinto</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Traditionalist_Catholic</t>
+  </si>
+  <si>
+    <t>en-Traditionalist Catholic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservatism_in_Australia</t>
+  </si>
+  <si>
+    <t>en-Conservatism in Australia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservatism_in_Canada</t>
+  </si>
+  <si>
+    <t>en-Conservatism in Canada</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_Conservatism_(China)</t>
+  </si>
+  <si>
+    <t>en-New Conservatism (China)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservatism_in_Colombia</t>
+  </si>
+  <si>
+    <t>en-Conservatism in Colombia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservatism_in_Germany</t>
+  </si>
+  <si>
+    <t>en-Conservatism in Germany</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservatism_in_South_Korea</t>
+  </si>
+  <si>
+    <t>en-Conservatism in South Korea</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservatism_in_Serbia</t>
+  </si>
+  <si>
+    <t>en-Conservatism in Serbia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Conservatism_in_Turkey</t>
+  </si>
+  <si>
+    <t>en-Conservatism in Turkey</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>英国保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>美国保守主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agrarianism</t>
+  </si>
+  <si>
+    <t>en-Agrarianism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>贵族政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Carlism</t>
+  </si>
+  <si>
+    <t>en-Carlism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
+  </si>
+  <si>
+    <t>中间偏右</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>保守革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>反革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>法西斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E9%BB%A8%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>自由意志主义共和党人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>君主主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>新自由主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Radical_centrism</t>
+  </si>
+  <si>
+    <t>en-Radical centrism</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Radical_right_(Europe)</t>
+  </si>
+  <si>
+    <t>en-Radical right (Europe)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>反动</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_positions_of_Ronald_Reagan</t>
+  </si>
+  <si>
+    <t>en-Political positions of Ronald Reagan</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E7%BF%BC</t>
+  </si>
+  <si>
+    <t>右翼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
+  </si>
+  <si>
+    <t>社会阶层</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>撒切尔主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%88%A9%E5%85%9A</t>
+  </si>
+  <si>
+    <t>托利党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Conservatism</t>
+  </si>
+  <si>
+    <t>Template talk-Conservatism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>极权主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>进步保守主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>福利国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
+  </si>
+  <si>
+    <t>托马斯·霍布斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BB%B4%E5%9D%A6_(%E9%9C%8D%E5%B8%83%E6%96%AF)</t>
+  </si>
+  <si>
+    <t>利维坦 (霍布斯)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
+  </si>
+  <si>
+    <t>约翰·洛克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>政府论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>启蒙时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>法国大革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
+  </si>
+  <si>
+    <t>宗教改革</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E5%AE%97</t>
+  </si>
+  <si>
+    <t>圣公宗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E8%83%A1%E5%85%8B</t>
+  </si>
+  <si>
+    <t>理查德·胡克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%89%98%E9%82%A6</t>
+  </si>
+  <si>
+    <t>乌托邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>现代主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
+  </si>
+  <si>
+    <t>政治意识形态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>无政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>绿色无政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>世界主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>无政府共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>基督教共产主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>工团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>无政府工团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>民主社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会民主主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>生态社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>无政府社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由意志社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社群主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>集体主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>基督教民主主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>国家主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>保守自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由意志主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>人文主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>进步主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>三民主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>环境保护主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>伊斯兰主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>民族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>原教旨主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>伊斯兰原教旨主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>军国主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>纳粹主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>政治意识形态列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E9%A2%A8%E9%9A%AA</t>
+  </si>
+  <si>
+    <t>道德风险</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E6%9C%83%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>维也纳会议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>西方文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>中华文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>藏文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>封建制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%B8%BE</t>
+  </si>
+  <si>
+    <t>科举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>好撒马利亚人法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>欧洲联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>欧盟宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A6%84%E4%BA%8C%E4%B8%96</t>
+  </si>
+  <si>
+    <t>若望·保禄二世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>伊斯兰教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>穆罕默德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
+  </si>
+  <si>
+    <t>自由放任</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>古典自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
+  </si>
+  <si>
+    <t>亚当·斯密</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
+  </si>
+  <si>
+    <t>弗里德里克·哈耶克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
+  </si>
+  <si>
+    <t>米尔顿·佛利民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
+  </si>
+  <si>
+    <t>路德维希·冯·米塞斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>经济自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E5%85%B0%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>艾茵·兰德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>公民社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%88%E5%9C%B0%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>圈地运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%89%B2</t>
+  </si>
+  <si>
+    <t>情色</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>右派政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>西方世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>民主国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%B9%89%E8%AF%8D</t>
+  </si>
+  <si>
+    <t>同义词</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E5%92%8C%E5%8F%B3%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>左派和右派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%95%E8%83%8E</t>
+  </si>
+  <si>
+    <t>堕胎</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>种族主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
+  </si>
+  <si>
+    <t>大卫·休谟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>帝国主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%96%87%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>沙文主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>保守党 (英国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大英帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>英国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>君主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
+  </si>
+  <si>
+    <t>贵族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8D%A3%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>光荣革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
+  </si>
+  <si>
+    <t>共和制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%89%E6%A0%BC%E5%85%9A</t>
+  </si>
+  <si>
+    <t>辉格党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
+  </si>
+  <si>
+    <t>君权神授说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E8%81%96%E5%85%AC%E5%AE%97</t>
+  </si>
+  <si>
+    <t>普世圣公宗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>工业革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E7%9A%AE%E7%88%BE</t>
+  </si>
+  <si>
+    <t>罗伯特·皮尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9%E6%B3%95</t>
+  </si>
+  <si>
+    <t>谷物法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
+  </si>
+  <si>
+    <t>自由贸易</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>浪漫主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第一次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%B7%A5%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>英国工党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>计划经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>凯恩斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E5%88%A9%E7%89%B9%C2%B7%E6%92%92%E5%88%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>玛格利特·撒切尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
+  </si>
+  <si>
+    <t>私有化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>国际主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>富兰克林·德拉诺·罗斯福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
+  </si>
+  <si>
+    <t>罗斯福新政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
+  </si>
+  <si>
+    <t>两党制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
+  </si>
+  <si>
+    <t>意识形态</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>大政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9D%83%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>公权力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>公民自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9E%AA%E6%A2%B0%E7%AE%A1%E5%88%B6</t>
+  </si>
+  <si>
+    <t>枪械管制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>自由社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
+  </si>
+  <si>
+    <t>左翼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>鹰派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>国家恐怖主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>伊拉克战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%86%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>中央集权主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%BF%83%E5%AE%B6%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>核心家庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>多元文化主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>孤立主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%AE%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>欧洲议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>德国基督教民主联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E6%81%A9%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A4%BE%E4%BC%9A%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>拜恩基督教社会联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%92%8C%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>温和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E4%BF%9D%E5%AE%88%E5%85%9A</t>
+  </si>
+  <si>
+    <t>挪威保守党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0%E5%9B%BD%E5%AE%B6%E8%81%94%E5%90%88%E5%85%9A</t>
+  </si>
+  <si>
+    <t>芬兰国家联合党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B%E7%8B%AC%E7%AB%8B%E5%85%9A</t>
+  </si>
+  <si>
+    <t>冰岛独立党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E4%BF%9D%E5%AE%88%E4%BA%BA%E6%B0%91%E5%85%9A</t>
+  </si>
+  <si>
+    <t>丹麦保守人民党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
+  </si>
+  <si>
+    <t>北约</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%88%B6%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>建制派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%BB%BA%E8%81%AF</t>
+  </si>
+  <si>
+    <t>民建联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%81%AF%E6%9C%83</t>
+  </si>
+  <si>
+    <t>工联会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A</t>
+  </si>
+  <si>
+    <t>中国共产党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>毛泽东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>斯大林主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E5%8C%96</t>
+  </si>
+  <si>
+    <t>市场化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%84%92%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>新儒家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6%E6%80%9D%E6%83%B3</t>
+  </si>
+  <si>
+    <t>儒家思想</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/CNN</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>保守主义政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%95%99%E7%BE%A9%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>基本教义派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%8B%95%E7%9A%84%E4%BF%AE%E8%BE%AD</t>
+  </si>
+  <si>
+    <t>反动的修辞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>文化保守主義</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_保守主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E6%94%BF%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>財政保守主義</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Green_conservatism</t>
-  </si>
-  <si>
-    <t>en-Green conservatism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由保守主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由意志保守主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>民族保守主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新保守主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%B3%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>新右派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9B%BD%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>一国保守主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>旧保守主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_conservatism</t>
-  </si>
-  <si>
-    <t>en-Social conservatism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>古典保守主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%9E%E7%9C%BE%E8%A1%8C%E7%82%BA</t>
-  </si>
-  <si>
-    <t>從眾行為</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Familialism</t>
-  </si>
-  <si>
-    <t>en-Familialism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>自由市场</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>小政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%A7%84%E8%8C%83</t>
-  </si>
-  <si>
-    <t>社会规范</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>爱国主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%88%B6</t>
-  </si>
-  <si>
-    <t>私有制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>贸易保护主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>法治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>传统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E4%BC%AF%E5%85%8B</t>
-  </si>
-  <si>
-    <t>埃德蒙·伯克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%B7%B4%E8%92%82%E6%96%AF%E5%A1%94%C2%B7%E7%BB%B4%E6%9F%AF</t>
-  </si>
-  <si>
-    <t>詹巴蒂斯塔·维柯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E5%BE%B7%C2%B7%E8%BF%88%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>约瑟夫·德·迈斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%B4%8D%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>波納德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E7%B1%B3%E5%8B%92_(%E4%BD%9C%E5%AE%B6)</t>
-  </si>
-  <si>
-    <t>亞當·米勒 (作家)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E6%96%BD%E5%8B%92%E6%A0%BC%E7%88%BE</t>
-  </si>
-  <si>
-    <t>卡爾·威廉·施勒格爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%93%A6%E5%88%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>诺瓦利斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E6%8A%A4%E5%8D%81%E4%B8%96</t>
-  </si>
-  <si>
-    <t>庇护十世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E6%8A%A4%E4%B9%9D%E4%B8%96</t>
-  </si>
-  <si>
-    <t>庇护九世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E7%B4%A2%E7%93%A6-%E5%8B%92%E5%86%85%C2%B7%E5%BE%B7%C2%B7%E5%A4%8F%E5%A4%9A%E5%B8%83%E9%87%8C%E6%98%82</t>
-  </si>
-  <si>
-    <t>弗朗索瓦-勒内·德·夏多布里昂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E9%96%80%E6%96%AF%C2%B7%E6%A2%85%E7%89%B9%E6%B6%85</t>
-  </si>
-  <si>
-    <t>克萊門斯·梅特涅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E5%A5%A7%E6%B3%A2%E5%BE%B7%C2%B7%E9%A6%AE%C2%B7%E8%98%AD%E5%85%8B</t>
-  </si>
-  <si>
-    <t>利奧波德·馮·蘭克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%C2%B7%E7%B1%B3%E5%93%88%E4%BC%8A%E6%B4%9B%E7%BB%B4%E5%A5%87%C2%B7%E5%8D%A1%E6%8B%89%E5%A7%86%E6%B4%A5</t>
-  </si>
-  <si>
-    <t>尼古拉·米哈伊洛维奇·卡拉姆津</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E9%BA%A6%E5%85%8B%E5%94%90%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>约翰·亚历山大·麦克唐纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E6%B3%B0%E5%8B%92%C2%B7%E6%9F%AF%E5%8B%92%E5%BE%8B%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>塞缪尔·泰勒·柯勒律治</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Juan_Donoso_Cort%C3%A9s</t>
-  </si>
-  <si>
-    <t>en-Juan Donoso Cortés</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7C%C2%B7%E5%8D%A1%E5%B0%94%E9%9C%8D%E6%81%A9</t>
-  </si>
-  <si>
-    <t>约翰·C·卡尔霍恩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E9%98%BF%E5%B0%94%E5%8D%A1%E5%AD%A3%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E6%96%AF%E6%89%98%E9%9B%B7%E5%B9%B3</t>
-  </si>
-  <si>
-    <t>彼得·阿尔卡季耶维奇·斯托雷平</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%9D%B0%E6%98%8E%C2%B7%E8%BF%AA%E6%96%AF%E9%9B%B7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>本杰明·迪斯雷利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%89%98%C2%B7%E5%86%AF%C2%B7%E4%BF%BE%E6%96%AF%E9%BA%A6</t>
-  </si>
-  <si>
-    <t>奥托·冯·俾斯麦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%8D%A1%E5%B0%94%C2%B7%E5%86%AF%C2%B7%E8%90%A8%E7%BB%B4%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>弗里德里希·卡尔·冯·萨维尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%85%93%E7%89%B9%E7%83%88%C2%B7%E5%A8%81%E5%BB%89%E5%9B%9B%E4%B8%96</t>
-  </si>
-  <si>
-    <t>腓特烈·威廉四世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E6%B3%A2%E5%88%A9%E7%89%B9%C2%B7%E9%98%BF%E9%81%93%E5%B0%94%E5%A4%AB%C2%B7%E4%B8%B9%E7%BA%B3</t>
-  </si>
-  <si>
-    <t>依波利特·阿道尔夫·丹纳</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E8%A5%BF%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E6%89%98%E5%85%8B%E7%BB%B4%E5%B0%94</t>
-  </si>
-  <si>
-    <t>亚历西斯·德·托克维尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%BC%97%E7%BD%97%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>罗伯特·弗罗斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E7%B4%90%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>約翰·亨利·紐曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E4%B8%89%E4%B8%96_(%E4%BF%84%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>亚历山大三世 (俄国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%8B%89%E5%9F%BA%E7%B1%B3%E7%88%BE%C2%B7%E6%99%AE%E5%88%A9%E5%B8%8C%E5%85%8B%E7%B6%AD%E5%A5%87</t>
-  </si>
-  <si>
-    <t>弗拉基米爾·普利希克維奇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%A1%91%E5%A1%94%E4%BA%9A%E9%82%A3</t>
-  </si>
-  <si>
-    <t>乔治·桑塔亚那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E7%93%A6%E7%88%BE%E5%BE%B7%C2%B7%E6%96%AF%E8%B3%93%E6%A0%BC%E5%8B%92</t>
-  </si>
-  <si>
-    <t>奧斯瓦爾德·斯賓格勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E6%98%82%C2%B7%E5%B8%83%E6%B4%9B%E4%BC%8A</t>
-  </si>
-  <si>
-    <t>莱昂·布洛伊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%A5%A5%E5%A4%9A%E5%B0%94%C2%B7%E7%B1%B3%E5%93%88%E4%BC%8A%E6%B4%9B%E7%BB%B4%E5%A5%87%C2%B7%E9%99%80%E6%80%9D%E5%A6%A5%E8%80%B6%E5%A4%AB%E6%96%AF%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>费奥多尔·米哈伊洛维奇·陀思妥耶夫斯基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E6%96%AF%E7%89%B9%C2%B7%E8%8D%A3%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>恩斯特·荣格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%96%AF%E9%A1%BF%C2%B7%E4%B8%98%E5%90%89%E5%B0%94</t>
-  </si>
-  <si>
-    <t>温斯顿·丘吉尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7A%C2%B7%E5%A1%94%E5%A4%AB%E8%84%B1</t>
-  </si>
-  <si>
-    <t>罗伯特·A·塔夫脱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%AB%BE%C2%B7%E9%AE%91%E5%A8%81%E7%88%BE</t>
-  </si>
-  <si>
-    <t>以諾·鮑威爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%A8%81%E5%BB%89%C2%B7F%C2%B7%E5%B7%B4%E5%85%8B%E5%88%A9</t>
-  </si>
-  <si>
-    <t>小威廉·F·巴克利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%BA%B3%E5%BE%B7%C2%B7%E9%87%8C%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>罗纳德·里根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7P%C2%B7%E4%BA%A8%E5%BB%B7%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>塞缪尔·P·亨廷顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E4%B8%BD%E7%89%B9%C2%B7%E6%92%92%E5%88%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>玛格丽特·撒切尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E6%96%BD%E7%B1%B3%E7%89%B9</t>
-  </si>
-  <si>
-    <t>卡尔·施米特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/T%C2%B7S%C2%B7%E8%89%BE%E7%95%A5%E7%89%B9</t>
-  </si>
-  <si>
-    <t>T·S·艾略特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%AC%83%E5%8D%81%E5%85%AD%E4%B8%96</t>
-  </si>
-  <si>
-    <t>本笃十六世</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Michael_Oakeshott</t>
-  </si>
-  <si>
-    <t>en-Michael Oakeshott</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%E5%AE%81%C2%B7%E6%96%AF%E5%8D%A1%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>安东宁·斯卡利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/G%C2%B7K%C2%B7%E5%88%87%E6%96%AF%E7%89%B9%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>G·K·切斯特顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/C%C2%B7S%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
-  </si>
-  <si>
-    <t>C·S·刘易斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A5%C2%B7%E6%96%BD%E7%89%B9%E5%8A%B3%E6%96%AF</t>
-  </si>
-  <si>
-    <t>列奥·施特劳斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%B0%BC%C2%B7%E9%98%BF%E5%8D%9A%E7%89%B9</t>
-  </si>
-  <si>
-    <t>托尼·阿博特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>约翰·霍华德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E7%B4%A0%C2%B7%E6%9F%AF%E5%85%8B</t>
-  </si>
-  <si>
-    <t>罗素·柯克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%C2%B7%E4%BC%8A%E8%90%A8%E8%80%B6%E7%BB%B4%E5%A5%87%C2%B7%E7%B4%A2%E5%B0%94%E4%BB%81%E5%B0%BC%E7%90%B4</t>
-  </si>
-  <si>
-    <t>亚历山大·伊萨耶维奇·索尔仁尼琴</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Roger_Scruton</t>
-  </si>
-  <si>
-    <t>en-Roger Scruton</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>国际民主联盟</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Asia_Pacific_Democrat_Union</t>
-  </si>
-  <si>
-    <t>en-Asia Pacific Democrat Union</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%BA%BA%E6%B0%91%E5%85%9A</t>
-  </si>
-  <si>
-    <t>欧洲人民党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E4%BF%9D%E5%AE%88%E6%B4%BE%E5%92%8C%E6%94%B9%E9%9D%A9%E4%B8%BB%E4%B9%89%E8%80%85%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧洲保守派和改革主义者联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E5%85%9A</t>
-  </si>
-  <si>
-    <t>保守党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%8F%B3%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>基督教右派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%9F%BA%E8%A6%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>基督教基要主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jewish_right</t>
-  </si>
-  <si>
-    <t>en-Jewish right</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%93%88%E6%AF%94%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>瓦哈比派</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hindutva</t>
-  </si>
-  <si>
-    <t>en-Hindutva</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/State_Shinto</t>
-  </si>
-  <si>
-    <t>en-State Shinto</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Traditionalist_Catholic</t>
-  </si>
-  <si>
-    <t>en-Traditionalist Catholic</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservatism_in_Australia</t>
-  </si>
-  <si>
-    <t>en-Conservatism in Australia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservatism_in_Canada</t>
-  </si>
-  <si>
-    <t>en-Conservatism in Canada</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_Conservatism_(China)</t>
-  </si>
-  <si>
-    <t>en-New Conservatism (China)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservatism_in_Colombia</t>
-  </si>
-  <si>
-    <t>en-Conservatism in Colombia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservatism_in_Germany</t>
-  </si>
-  <si>
-    <t>en-Conservatism in Germany</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservatism_in_South_Korea</t>
-  </si>
-  <si>
-    <t>en-Conservatism in South Korea</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservatism_in_Serbia</t>
-  </si>
-  <si>
-    <t>en-Conservatism in Serbia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Conservatism_in_Turkey</t>
-  </si>
-  <si>
-    <t>en-Conservatism in Turkey</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>英國保守主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>美國保守主義</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agrarianism</t>
-  </si>
-  <si>
-    <t>en-Agrarianism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>贵族政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Carlism</t>
-  </si>
-  <si>
-    <t>en-Carlism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%96%93%E5%81%8F%E5%8F%B3</t>
-  </si>
-  <si>
-    <t>中間偏右</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社团主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>保守革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>反革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>法西斯主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E9%BB%A8%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>自由意志主義共和黨人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>君主主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>新自由主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Radical_centrism</t>
-  </si>
-  <si>
-    <t>en-Radical centrism</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Radical_right_(Europe)</t>
-  </si>
-  <si>
-    <t>en-Radical right (Europe)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>反动</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_positions_of_Ronald_Reagan</t>
-  </si>
-  <si>
-    <t>en-Political positions of Ronald Reagan</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E7%BF%BC</t>
-  </si>
-  <si>
-    <t>右翼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
-  </si>
-  <si>
-    <t>社会阶层</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>撒切尔主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%88%A9%E5%85%9A</t>
-  </si>
-  <si>
-    <t>托利党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Conservatism</t>
-  </si>
-  <si>
-    <t>Template talk-Conservatism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>自由市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>極權主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>共產主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>进步保守主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>福利國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%C2%B7%E9%9C%8D%E5%B8%83%E6%96%AF</t>
-  </si>
-  <si>
-    <t>托馬斯·霍布斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%BB%B4%E5%9D%A6_(%E9%9C%8D%E5%B8%83%E6%96%AF)</t>
-  </si>
-  <si>
-    <t>利维坦 (霍布斯)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
-  </si>
-  <si>
-    <t>約翰·洛克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>政府论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>啟蒙時代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>法國大革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%94%B9%E9%9D%A9</t>
-  </si>
-  <si>
-    <t>宗教改革</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%AC%E5%AE%97</t>
-  </si>
-  <si>
-    <t>聖公宗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E8%83%A1%E5%85%8B</t>
-  </si>
-  <si>
-    <t>理查德·胡克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美國革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%89%98%E9%82%A6</t>
-  </si>
-  <si>
-    <t>烏托邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>現代主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
-  </si>
-  <si>
-    <t>政治意识形态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>无政府主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>綠色無政府主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>世界主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>共产主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>无政府共产主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>基督教共产主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>工团主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9B%A2%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>无政府工团主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社團主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>民主社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会民主主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>生態社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>無政府社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由意志社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E7%BE%A4%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社群主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>集體主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>基督教民主主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>自由主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>国家主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会自由主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>保守自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由意志主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>人文主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E6%AD%A5%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>进步主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>三民主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>环境保护主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>伊斯兰主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>民族主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>原教旨主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>伊斯兰原教旨主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>军国主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>納粹主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>政治意識形態列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E9%A2%A8%E9%9A%AA</t>
-  </si>
-  <si>
-    <t>道德風險</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E6%9C%83%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>維也納會議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>西方文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>中华文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>藏文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>封建制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E4%B8%BE</t>
-  </si>
-  <si>
-    <t>科举</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>好撒馬利亞人法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>欧盟宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A6%84%E4%BA%8C%E4%B8%96</t>
-  </si>
-  <si>
-    <t>若望·保禄二世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>伊斯兰教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>穆罕默德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
-  </si>
-  <si>
-    <t>自由放任</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>古典自由主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
-  </si>
-  <si>
-    <t>亚当·斯密</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
-  </si>
-  <si>
-    <t>弗里德里克·哈耶克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
-  </si>
-  <si>
-    <t>米爾頓·佛利民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
-  </si>
-  <si>
-    <t>路德維希·馮·米塞斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>經濟自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E5%85%B0%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>艾茵·兰德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>公民社会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%88%E5%9C%B0%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>圈地运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%83%85%E8%89%B2</t>
-  </si>
-  <si>
-    <t>情色</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>右派政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>西方世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>民主國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%B9%89%E8%AF%8D</t>
-  </si>
-  <si>
-    <t>同义词</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E5%92%8C%E5%8F%B3%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>左派和右派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%95%E8%83%8E</t>
-  </si>
-  <si>
-    <t>堕胎</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
-  </si>
-  <si>
-    <t>大卫·休谟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9B%BD%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>帝国主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%96%87%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>沙文主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>保守黨 (英國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大英帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>英国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>法国大革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>君主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
-  </si>
-  <si>
-    <t>貴族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%89%E8%8D%A3%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>光荣革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
-  </si>
-  <si>
-    <t>共和制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%89%E6%A0%BC%E5%85%9A</t>
-  </si>
-  <si>
-    <t>辉格党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
-  </si>
-  <si>
-    <t>君權神授說</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E8%81%96%E5%85%AC%E5%AE%97</t>
-  </si>
-  <si>
-    <t>普世聖公宗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>工业革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E7%9A%AE%E7%88%BE</t>
-  </si>
-  <si>
-    <t>羅伯特·皮爾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%80%E7%89%A9%E6%B3%95</t>
-  </si>
-  <si>
-    <t>穀物法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
-  </si>
-  <si>
-    <t>自由貿易</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%AA%E6%BC%AB%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>浪漫主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第一次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%B7%A5%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>英國工黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
-  </si>
-  <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>計劃經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>凯恩斯主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E5%88%A9%E7%89%B9%C2%B7%E6%92%92%E5%88%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>玛格利特·撒切尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E5%8C%96</t>
-  </si>
-  <si>
-    <t>私有化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>国际主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>冷戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>富兰克林·德拉诺·罗斯福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E7%A6%8F%E6%96%B0%E6%94%BF</t>
-  </si>
-  <si>
-    <t>罗斯福新政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美國政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
-  </si>
-  <si>
-    <t>兩黨制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
-  </si>
-  <si>
-    <t>意識形態</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>大政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9D%83%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>公权力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E8%87%AA%E7%94%B1</t>
-  </si>
-  <si>
-    <t>公民自由</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9E%AA%E6%A2%B0%E7%AE%A1%E5%88%B6</t>
-  </si>
-  <si>
-    <t>枪械管制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>自由社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E7%BF%BC</t>
-  </si>
-  <si>
-    <t>左翼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>鷹派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>國家恐怖主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>伊拉克戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社會民主主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%9B%86%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>中央集權主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%BF%83%E5%AE%B6%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>核心家庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%85%83%E6%96%87%E5%8C%96%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>多元文化主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>孤立主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BA%BA%E6%B0%91%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>歐洲人民黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%AE%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>欧洲议会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>德国基督教民主联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E6%81%A9%E5%9F%BA%E7%9D%A3%E6%95%99%E7%A4%BE%E4%BC%9A%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>拜恩基督教社会联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%92%8C%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>溫和黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E4%BF%9D%E5%AE%88%E5%85%9A</t>
-  </si>
-  <si>
-    <t>挪威保守党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0%E5%9B%BD%E5%AE%B6%E8%81%94%E5%90%88%E5%85%9A</t>
-  </si>
-  <si>
-    <t>芬兰国家联合党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B%E7%8B%AC%E7%AB%8B%E5%85%9A</t>
-  </si>
-  <si>
-    <t>冰岛独立党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E4%BF%9D%E5%AE%88%E4%BA%BA%E6%B0%91%E5%85%9A</t>
-  </si>
-  <si>
-    <t>丹麦保守人民党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
-  </si>
-  <si>
-    <t>北約</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E5%88%B6%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>建制派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%BB%BA%E8%81%AF</t>
-  </si>
-  <si>
-    <t>民建聯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%81%AF%E6%9C%83</t>
-  </si>
-  <si>
-    <t>工聯會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%85%B1%E4%BA%A7%E5%85%9A</t>
-  </si>
-  <si>
-    <t>中国共产党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>毛泽东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>斯大林主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
-  </si>
-  <si>
-    <t>改革开放</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E5%8C%96</t>
-  </si>
-  <si>
-    <t>市场化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>民族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%84%92%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>新儒家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6%E6%80%9D%E6%83%B3</t>
-  </si>
-  <si>
-    <t>儒家思想</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AF%86%E5%BD%A2%E6%80%81</t>
-  </si>
-  <si>
-    <t>意识形态</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/CNN</t>
-  </si>
-  <si>
-    <t>CNN</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>保守主义政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E6%95%99%E7%BE%A9%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>基本教義派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%8B%95%E7%9A%84%E4%BF%AE%E8%BE%AD</t>
-  </si>
-  <si>
-    <t>反動的修辭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I309"/>
+  <dimension ref="A1:I311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5632,7 +5611,7 @@
         <v>241</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="G121" t="n">
         <v>14</v>
@@ -5658,10 +5637,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" t="s">
         <v>243</v>
-      </c>
-      <c r="F122" t="s">
-        <v>244</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5687,10 +5666,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
         <v>245</v>
-      </c>
-      <c r="F123" t="s">
-        <v>246</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -5716,10 +5695,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s">
         <v>247</v>
-      </c>
-      <c r="F124" t="s">
-        <v>248</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5745,10 +5724,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>248</v>
+      </c>
+      <c r="F125" t="s">
         <v>249</v>
-      </c>
-      <c r="F125" t="s">
-        <v>250</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5774,10 +5753,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>250</v>
+      </c>
+      <c r="F126" t="s">
         <v>251</v>
-      </c>
-      <c r="F126" t="s">
-        <v>252</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5803,10 +5782,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>252</v>
+      </c>
+      <c r="F127" t="s">
         <v>253</v>
-      </c>
-      <c r="F127" t="s">
-        <v>254</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5832,10 +5811,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>254</v>
+      </c>
+      <c r="F128" t="s">
         <v>255</v>
-      </c>
-      <c r="F128" t="s">
-        <v>256</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5861,10 +5840,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>256</v>
+      </c>
+      <c r="F129" t="s">
         <v>257</v>
-      </c>
-      <c r="F129" t="s">
-        <v>258</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5890,10 +5869,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" t="s">
         <v>259</v>
-      </c>
-      <c r="F130" t="s">
-        <v>260</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5919,10 +5898,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>260</v>
+      </c>
+      <c r="F131" t="s">
         <v>261</v>
-      </c>
-      <c r="F131" t="s">
-        <v>262</v>
       </c>
       <c r="G131" t="n">
         <v>7</v>
@@ -5948,10 +5927,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>262</v>
+      </c>
+      <c r="F132" t="s">
         <v>263</v>
-      </c>
-      <c r="F132" t="s">
-        <v>264</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5977,10 +5956,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" t="s">
         <v>265</v>
-      </c>
-      <c r="F133" t="s">
-        <v>266</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6006,10 +5985,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>266</v>
+      </c>
+      <c r="F134" t="s">
         <v>267</v>
-      </c>
-      <c r="F134" t="s">
-        <v>268</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6035,10 +6014,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>268</v>
+      </c>
+      <c r="F135" t="s">
         <v>269</v>
-      </c>
-      <c r="F135" t="s">
-        <v>270</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6064,10 +6043,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>270</v>
+      </c>
+      <c r="F136" t="s">
         <v>271</v>
-      </c>
-      <c r="F136" t="s">
-        <v>272</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6093,10 +6072,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>272</v>
+      </c>
+      <c r="F137" t="s">
         <v>273</v>
-      </c>
-      <c r="F137" t="s">
-        <v>274</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6122,10 +6101,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>258</v>
+      </c>
+      <c r="F138" t="s">
         <v>259</v>
-      </c>
-      <c r="F138" t="s">
-        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6151,10 +6130,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6180,10 +6159,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6209,10 +6188,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6238,10 +6217,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6267,10 +6246,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -6296,10 +6275,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6325,10 +6304,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6354,10 +6333,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6383,10 +6362,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6412,10 +6391,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6441,10 +6420,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>6</v>
@@ -6470,10 +6449,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6499,10 +6478,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6528,10 +6507,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6557,10 +6536,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6586,10 +6565,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6615,10 +6594,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6644,10 +6623,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6673,10 +6652,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>5</v>
@@ -6702,10 +6681,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G158" t="n">
         <v>12</v>
@@ -6731,10 +6710,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6760,10 +6739,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6789,10 +6768,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6818,10 +6797,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -6847,10 +6826,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6876,10 +6855,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6905,10 +6884,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6934,10 +6913,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6963,10 +6942,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6992,10 +6971,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7021,10 +7000,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7050,10 +7029,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7079,10 +7058,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7108,10 +7087,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7137,10 +7116,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7166,10 +7145,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7195,10 +7174,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7253,10 +7232,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7282,10 +7261,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7311,10 +7290,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7340,10 +7319,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7369,10 +7348,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7398,10 +7377,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7427,10 +7406,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7456,10 +7435,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7485,10 +7464,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7514,10 +7493,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7543,10 +7522,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7572,10 +7551,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F188" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7601,10 +7580,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7659,10 +7638,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G191" t="n">
         <v>4</v>
@@ -7688,10 +7667,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G192" t="n">
         <v>6</v>
@@ -7717,10 +7696,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7746,10 +7725,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7775,10 +7754,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7804,10 +7783,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7833,10 +7812,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -7862,10 +7841,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7891,10 +7870,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7949,10 +7928,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7978,10 +7957,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8007,10 +7986,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8036,10 +8015,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8065,10 +8044,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8094,10 +8073,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8123,10 +8102,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>7</v>
@@ -8152,10 +8131,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8181,10 +8160,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8210,10 +8189,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8239,10 +8218,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F211" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8268,10 +8247,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8297,10 +8276,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8326,10 +8305,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8355,10 +8334,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G215" t="n">
         <v>10</v>
@@ -8384,10 +8363,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8413,10 +8392,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>261</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8442,10 +8421,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G218" t="n">
         <v>20</v>
@@ -8471,10 +8450,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G219" t="n">
         <v>4</v>
@@ -8500,10 +8479,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8529,10 +8508,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8558,10 +8537,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G222" t="n">
         <v>17</v>
@@ -8587,10 +8566,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F223" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8616,10 +8595,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>5</v>
@@ -8645,10 +8624,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G225" t="n">
         <v>4</v>
@@ -8674,10 +8653,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8703,10 +8682,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F227" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G227" t="n">
         <v>5</v>
@@ -8732,10 +8711,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8761,10 +8740,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8790,10 +8769,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8819,10 +8798,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8848,10 +8827,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8877,10 +8856,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8906,10 +8885,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8935,10 +8914,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -8964,10 +8943,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8993,10 +8972,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9022,10 +9001,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9051,10 +9030,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9080,10 +9059,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9109,10 +9088,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9138,10 +9117,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9167,10 +9146,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9196,10 +9175,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9225,10 +9204,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9254,10 +9233,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9283,10 +9262,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9312,10 +9291,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9341,10 +9320,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G249" t="n">
         <v>25</v>
@@ -9370,10 +9349,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9399,10 +9378,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F251" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9428,10 +9407,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9457,10 +9436,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G253" t="n">
         <v>8</v>
@@ -9486,10 +9465,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9515,10 +9494,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9544,10 +9523,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9573,10 +9552,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9602,10 +9581,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9631,10 +9610,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F259" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9660,10 +9639,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9689,10 +9668,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>293</v>
       </c>
       <c r="G261" t="n">
         <v>3</v>
@@ -9718,10 +9697,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -9776,10 +9755,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9805,10 +9784,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9834,10 +9813,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9863,10 +9842,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>297</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9892,10 +9871,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F268" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9921,10 +9900,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F269" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9950,10 +9929,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F270" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9979,10 +9958,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F271" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10037,10 +10016,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>158</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10066,10 +10045,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10095,10 +10074,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -10124,10 +10103,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10153,10 +10132,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10211,10 +10190,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10240,10 +10219,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10269,10 +10248,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10298,10 +10277,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10327,10 +10306,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10356,10 +10335,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10385,10 +10364,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F285" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G285" t="n">
         <v>3</v>
@@ -10414,10 +10393,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10443,10 +10422,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>4</v>
@@ -10472,10 +10451,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -10501,10 +10480,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10530,10 +10509,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10559,10 +10538,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10588,10 +10567,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10617,10 +10596,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10646,10 +10625,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10675,10 +10654,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10704,10 +10683,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>331</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -10733,10 +10712,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10762,10 +10741,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10791,10 +10770,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>479</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -10820,10 +10799,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -10849,10 +10828,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F301" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10878,10 +10857,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -10907,10 +10886,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F303" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10936,10 +10915,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F304" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10965,10 +10944,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F305" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -10994,10 +10973,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G306" t="n">
         <v>3</v>
@@ -11023,10 +11002,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11052,10 +11031,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11081,10 +11060,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F309" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11093,6 +11072,64 @@
         <v>4</v>
       </c>
       <c r="I309" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1</v>
+      </c>
+      <c r="D310" t="n">
+        <v>309</v>
+      </c>
+      <c r="E310" t="s">
+        <v>579</v>
+      </c>
+      <c r="F310" t="s">
+        <v>580</v>
+      </c>
+      <c r="G310" t="n">
+        <v>9</v>
+      </c>
+      <c r="H310" t="s">
+        <v>4</v>
+      </c>
+      <c r="I310" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1</v>
+      </c>
+      <c r="D311" t="n">
+        <v>310</v>
+      </c>
+      <c r="E311" t="s">
+        <v>579</v>
+      </c>
+      <c r="F311" t="s">
+        <v>581</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1</v>
+      </c>
+      <c r="H311" t="s">
+        <v>4</v>
+      </c>
+      <c r="I311" t="n">
         <v>3</v>
       </c>
     </row>
